--- a/Templates/23_05_23_Json_Excel_Template_intro_schlüsselerk.xlsx
+++ b/Templates/23_05_23_Json_Excel_Template_intro_schlüsselerk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FloraValentina/Library/Mobile Documents/com~apple~CloudDocs/Dokumente/Arbeit/Onesome/Coding/Jsons/Json Builder/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE466F4D-1932-104E-8753-A505D8CCC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451118F1-F649-094A-A77D-5E75FCF6810C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" xr2:uid="{10C9D494-FF19-E541-B5E6-AA7C08DB1016}"/>
   </bookViews>
@@ -470,9 +470,6 @@
     <t xml:space="preserve">Alle Inhalte der &lt;strong&gt;onesome&lt;/strong&gt;-App findest du in der Navigationszeile unter &lt;strong&gt;Erkunden&lt;/strong&gt;. Dort findest du Coachings, Inputs und Trainings zu den Themen&lt;br&gt;_x000B_&lt;strong&gt;O&lt;/strong&gt;rientierung&lt;br&gt;_x000B_&lt;strong&gt;A&lt;/strong&gt;chtsamkeit&lt;br&gt;_x000B_&lt;strong&gt;S&lt;/strong&gt;oziale Beziehungen&lt;br&gt;_x000B_&lt;strong&gt;E&lt;/strong&gt;rfolg&lt;br&gt;_x000B_&lt;strong&gt;I&lt;/strong&gt;nnovation&lt;br&gt;_x000B_Daraus setzt sich die onesome &lt;strong&gt;OASE!&lt;/strong&gt; zusammen. </t>
   </si>
   <si>
-    <t>XY</t>
-  </si>
-  <si>
     <t>Wie tief?</t>
   </si>
   <si>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>KEY INSIGHT (verpflichtend)</t>
+  </si>
+  <si>
+    <t>conflict_kompromisse.png</t>
   </si>
 </sst>
 </file>
@@ -1633,7 +1633,7 @@
   <dimension ref="A1:AD15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1683,55 +1683,55 @@
         <v>0</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="T1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="U1" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="8" t="s">
+      <c r="Y1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="8" t="s">
+      <c r="AA1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AC1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="AC1" s="8" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:30" ht="35" thickTop="1" x14ac:dyDescent="0.2">
@@ -1757,73 +1757,73 @@
         <v>1</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="X2" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Y2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="Z2" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AA2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AC2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="AD2" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:30" ht="409.6" x14ac:dyDescent="0.25">
@@ -1831,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C3" s="23" t="s">
         <v>2</v>
@@ -1849,76 +1849,76 @@
         <v>2</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="S3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="X3" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Y3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="Z3" s="24" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AA3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AC3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AD3" s="10" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="17" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
@@ -1929,74 +1929,74 @@
       <c r="E4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>77</v>
+      <c r="F4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I4" s="23" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="13" t="s">
-        <v>77</v>
+      <c r="L4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="M4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="N4" s="13" t="s">
-        <v>77</v>
+      <c r="N4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="O4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>77</v>
+      <c r="P4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="S4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="T4" s="13" t="s">
-        <v>77</v>
+      <c r="T4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="U4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>77</v>
+      <c r="V4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="W4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="13" t="s">
-        <v>77</v>
+      <c r="X4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="Y4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>77</v>
+      <c r="Z4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="AA4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>77</v>
+      <c r="AB4" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="AC4" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="AD4" s="13" t="s">
-        <v>77</v>
+      <c r="AD4" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:30" ht="204" x14ac:dyDescent="0.2">
@@ -2009,25 +2009,25 @@
       <c r="C5" s="13"/>
       <c r="E5" s="13"/>
       <c r="G5" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S5" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AC5" s="25" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AD5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:30" ht="17" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.2">
@@ -2088,10 +2088,10 @@
       </c>
       <c r="C9" s="13"/>
       <c r="I9" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.2">
@@ -2483,33 +2483,33 @@
     </row>
     <row r="14" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" s="3"/>
     </row>
     <row r="16" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3"/>
     </row>
@@ -2577,7 +2577,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
